--- a/Poverty Rate by Zipcode.xlsx
+++ b/Poverty Rate by Zipcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Google Drive (sanaa.rafique@utexas.edu)\LBJ School of Public Affairs\Spring 2019\Data Management with Python\Take Home Assignment 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>ZIP</t>
-  </si>
-  <si>
     <t>PovRate17</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>PovRate12</t>
+  </si>
+  <si>
+    <t>ZIP_NEW</t>
   </si>
 </sst>
 </file>
@@ -859,7 +859,7 @@
   <dimension ref="A1:G1947"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,25 +869,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
